--- a/pratice.xlsx
+++ b/pratice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\DASHBOARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yagnesh Mokariya\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEA57A2-E840-4F41-95A0-8C7C530B705D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D905AD8E-62B9-4508-B7CF-5CA4C78F5BDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" firstSheet="3" activeTab="4" xr2:uid="{C0FE7BCF-8A7E-4173-A4B8-EDBC7F318E8A}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20370" windowHeight="12210" firstSheet="3" activeTab="6" xr2:uid="{C0FE7BCF-8A7E-4173-A4B8-EDBC7F318E8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,10 +52,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -261,7 +261,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,7 +1089,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1097,6 +1096,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1132,463 +1132,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[pratice.xlsx]Sheet3!PivotTable1</c:name>
-    <c:fmtId val="20"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$4:$C$10</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$D$4:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1112.76</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1254.32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1866.6099999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>680.46</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2462.0500000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>809.19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37.719999999999985</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-12B4-43B3-B319-60E753FA2C76}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="1351089487"/>
-        <c:axId val="1351069327"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="1351089487"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1351069327"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1351069327"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1351089487"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1785,7 +1328,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1793,6 +1335,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -1826,7 +1369,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2052,7 +1595,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2060,6 +1602,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -2093,7 +1636,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2300,7 +1843,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2308,6 +1850,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -2341,7 +1884,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2481,7 +2024,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2489,6 +2031,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -2519,6 +2062,484 @@
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[pratice.xlsx]Sheet3!PivotTable1</c:name>
+    <c:fmtId val="23"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Region</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> total </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1112.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1254.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1866.6099999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>680.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2462.0500000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>809.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.719999999999985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C483-4146-964F-75CBC151049F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1351089487"/>
+        <c:axId val="1351069327"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1351089487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1351069327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1351069327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1351089487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -3268,7 +3289,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3291,6 +3312,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -3314,7 +3346,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3365,6 +3397,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3375,12 +3414,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3418,7 +3464,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5319,7 +5365,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5342,17 +5388,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -5376,7 +5411,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5427,13 +5462,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5444,19 +5472,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5494,7 +5515,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5883,125 +5904,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Region">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF88498F-2A17-6E16-F9EC-2FD797F61459}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Region"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="266700" y="2438400"/>
-              <a:ext cx="1828800" cy="2581275"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-IN" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600742C7-9C59-781D-82F2-520F7548550B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>68581</xdr:rowOff>
@@ -6385,10 +6287,126 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>530678</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>497477</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>10070</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="11" name="Region">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD01D0FB-695C-4265-9FE3-E74236AAB294}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Region"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9375321" y="993322"/>
+              <a:ext cx="2007870" cy="2554605"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>204108</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>461283</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C750265A-4F15-4A38-9B5D-D939436BE5BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -6617,7 +6635,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -6846,7 +6864,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -7075,7 +7093,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -12351,7 +12369,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BC34047-56F9-4C61-82AC-60829D99A1EF}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0" chartFormat="21">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BC34047-56F9-4C61-82AC-60829D99A1EF}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0" chartFormat="28">
   <location ref="A3:D10" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="12">
     <pivotField compact="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -13230,7 +13248,7 @@
   <dataFields count="1">
     <dataField name="Sum of Profit" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="3">
     <chartFormat chart="15" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -13241,6 +13259,15 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="20" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="23" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -13335,7 +13362,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Region" xr10:uid="{05684F43-7C20-4D2C-9FDB-D8C20F18CAB9}" sourceName="Region">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Region" xr10:uid="{2945CC25-82B4-4B22-9005-C631B49EA9A4}" sourceName="Region">
   <pivotTables>
     <pivotTable tabId="7" name="PivotTable1"/>
   </pivotTables>
@@ -13354,15 +13381,10 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Region" xr10:uid="{22BC1409-F16A-4C50-97DF-4935E1ADA519}" cache="Slicer_Region" caption="Region" rowHeight="247650"/>
-</slicers>
-</file>
-
-<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Product" xr10:uid="{836C95C3-834F-45DA-B797-E1AB097582FF}" cache="Slicer_Product" caption="Product" showCaption="0" rowHeight="216000"/>
   <slicer name="CustomerName" xr10:uid="{3C1350DD-25BA-45C9-BA8C-BF7C138B247E}" cache="Slicer_CustomerName" caption="CustomerName" columnCount="8" rowHeight="247650"/>
   <slicer name="Months (OrderDate) 1" xr10:uid="{858E8F5E-C31D-40D0-97B4-F7DA8AEB5DF7}" cache="Slicer_Months__OrderDate" caption="Months (OrderDate)" rowHeight="247650"/>
+  <slicer name="Region" xr10:uid="{11939ABA-8941-44BC-A709-0D5F259ACD70}" cache="Slicer_Region" caption="Region" rowHeight="247650"/>
 </slicers>
 </file>
 
@@ -13705,16 +13727,16 @@
       <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="9.21875" customWidth="1"/>
+    <col min="2" max="3" width="9.25" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -13734,7 +13756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13752,7 +13774,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -13770,7 +13792,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -13788,7 +13810,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -13806,7 +13828,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -13824,7 +13846,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -13842,7 +13864,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -13860,7 +13882,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -13878,7 +13900,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -13896,7 +13918,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -13914,7 +13936,7 @@
         <v>148370</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -13932,7 +13954,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -13950,7 +13972,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="42.75">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -13971,7 +13993,7 @@
         <v>163133</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -13988,7 +14010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -14006,7 +14028,7 @@
         <v>9989</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -14024,7 +14046,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -14042,7 +14064,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -14060,7 +14082,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -14078,7 +14100,7 @@
         <v>9693</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -14096,7 +14118,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -14114,7 +14136,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -14132,7 +14154,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -14150,7 +14172,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -14168,7 +14190,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -14186,7 +14208,7 @@
         <v>3474</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -14214,6 +14236,30 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{1A271AF5-698E-4AA7-B762-A9015CBE09ED}">
+          <x14:colorSeries theme="3" tint="0.499984740745262"/>
+          <x14:colorNegative theme="1" tint="0.249977111117893"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="1" tint="0.249977111117893"/>
+          <x14:colorFirst theme="1" tint="0.249977111117893"/>
+          <x14:colorLast theme="1" tint="0.249977111117893"/>
+          <x14:colorHigh theme="1" tint="0.249977111117893"/>
+          <x14:colorLow theme="1" tint="0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!B4:B4</xm:f>
+              <xm:sqref>B4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!C4:C4</xm:f>
+              <xm:sqref>C4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D4:D4</xm:f>
+              <xm:sqref>D4</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{3BFB2593-BE4A-4C0D-BC62-B21AA2E33C00}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -14274,30 +14320,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{1A271AF5-698E-4AA7-B762-A9015CBE09ED}">
-          <x14:colorSeries theme="3" tint="0.499984740745262"/>
-          <x14:colorNegative theme="1" tint="0.249977111117893"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="1" tint="0.249977111117893"/>
-          <x14:colorFirst theme="1" tint="0.249977111117893"/>
-          <x14:colorLast theme="1" tint="0.249977111117893"/>
-          <x14:colorHigh theme="1" tint="0.249977111117893"/>
-          <x14:colorLow theme="1" tint="0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Sheet1!B4:B4</xm:f>
-              <xm:sqref>B4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!C4:C4</xm:f>
-              <xm:sqref>C4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D4:D4</xm:f>
-              <xm:sqref>D4</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -14313,13 +14335,13 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -14348,7 +14370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="6">
         <v>1001</v>
       </c>
@@ -14377,7 +14399,7 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="6">
         <v>1002</v>
       </c>
@@ -14406,7 +14428,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="6">
         <v>1003</v>
       </c>
@@ -14435,7 +14457,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="6">
         <v>1004</v>
       </c>
@@ -14464,7 +14486,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="6">
         <v>1005</v>
       </c>
@@ -14493,7 +14515,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="6">
         <v>1006</v>
       </c>
@@ -14522,7 +14544,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="6">
         <v>1007</v>
       </c>
@@ -14551,7 +14573,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="6">
         <v>1008</v>
       </c>
@@ -14580,7 +14602,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="6">
         <v>1009</v>
       </c>
@@ -14609,7 +14631,7 @@
         <v>45047</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="6">
         <v>1010</v>
       </c>
@@ -14638,7 +14660,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="6">
         <v>1011</v>
       </c>
@@ -14667,7 +14689,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="6">
         <v>1012</v>
       </c>
@@ -14696,7 +14718,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="6">
         <v>1013</v>
       </c>
@@ -14725,7 +14747,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="6">
         <v>1014</v>
       </c>
@@ -14754,7 +14776,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="6">
         <v>1015</v>
       </c>
@@ -14783,7 +14805,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="6">
         <v>1016</v>
       </c>
@@ -14812,7 +14834,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="6">
         <v>1017</v>
       </c>
@@ -14841,7 +14863,7 @@
         <v>45167</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="6">
         <v>1018</v>
       </c>
@@ -14870,7 +14892,7 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="6">
         <v>1019</v>
       </c>
@@ -14899,7 +14921,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="6">
         <v>1020</v>
       </c>
@@ -14928,7 +14950,7 @@
         <v>45212</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="6">
         <v>1021</v>
       </c>
@@ -14957,7 +14979,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="6">
         <v>1022</v>
       </c>
@@ -14986,7 +15008,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="6">
         <v>1023</v>
       </c>
@@ -15015,7 +15037,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="6">
         <v>1024</v>
       </c>
@@ -15044,7 +15066,7 @@
         <v>45272</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="6">
         <v>1025</v>
       </c>
@@ -15073,7 +15095,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="6">
         <v>1026</v>
       </c>
@@ -15102,7 +15124,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="6">
         <v>1027</v>
       </c>
@@ -15131,7 +15153,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="6">
         <v>1028</v>
       </c>
@@ -15160,7 +15182,7 @@
         <v>45332</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="6">
         <v>1029</v>
       </c>
@@ -15189,7 +15211,7 @@
         <v>45347</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" s="6">
         <v>1030</v>
       </c>
@@ -15218,7 +15240,7 @@
         <v>45362</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" s="6">
         <v>1031</v>
       </c>
@@ -15247,7 +15269,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" s="6">
         <v>1032</v>
       </c>
@@ -15276,7 +15298,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" s="6">
         <v>1033</v>
       </c>
@@ -15305,7 +15327,7 @@
         <v>45407</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="6">
         <v>1034</v>
       </c>
@@ -15334,7 +15356,7 @@
         <v>45422</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" s="6">
         <v>1035</v>
       </c>
@@ -15363,7 +15385,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" s="6">
         <v>1036</v>
       </c>
@@ -15392,7 +15414,7 @@
         <v>45452</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38" s="6">
         <v>1037</v>
       </c>
@@ -15421,7 +15443,7 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39" s="6">
         <v>1038</v>
       </c>
@@ -15450,7 +15472,7 @@
         <v>45482</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40" s="6">
         <v>1039</v>
       </c>
@@ -15479,7 +15501,7 @@
         <v>45497</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41" s="6">
         <v>1040</v>
       </c>
@@ -15508,7 +15530,7 @@
         <v>45512</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" s="6">
         <v>1041</v>
       </c>
@@ -15537,7 +15559,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" s="6">
         <v>1042</v>
       </c>
@@ -15566,7 +15588,7 @@
         <v>45542</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" s="6">
         <v>1043</v>
       </c>
@@ -15595,7 +15617,7 @@
         <v>45557</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45" s="6">
         <v>1044</v>
       </c>
@@ -15624,7 +15646,7 @@
         <v>45572</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46" s="6">
         <v>1045</v>
       </c>
@@ -15653,7 +15675,7 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47" s="6">
         <v>1046</v>
       </c>
@@ -15682,7 +15704,7 @@
         <v>45602</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48" s="6">
         <v>1047</v>
       </c>
@@ -15711,7 +15733,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49" s="6">
         <v>1048</v>
       </c>
@@ -15740,7 +15762,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50" s="6">
         <v>1049</v>
       </c>
@@ -15769,7 +15791,7 @@
         <v>45647</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51" s="6">
         <v>1050</v>
       </c>
@@ -15811,17 +15833,17 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
         <v>57</v>
       </c>
@@ -15829,7 +15851,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="9">
         <v>1001</v>
       </c>
@@ -15837,7 +15859,7 @@
         <v>142.13999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
         <v>33</v>
       </c>
@@ -15845,7 +15867,7 @@
         <v>142.13999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="9">
         <v>1002</v>
       </c>
@@ -15853,7 +15875,7 @@
         <v>-39.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
         <v>36</v>
       </c>
@@ -15861,7 +15883,7 @@
         <v>-39.1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="9">
         <v>1003</v>
       </c>
@@ -15869,7 +15891,7 @@
         <v>198.64</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="10" t="s">
         <v>39</v>
       </c>
@@ -15877,7 +15899,7 @@
         <v>198.64</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="9">
         <v>1004</v>
       </c>
@@ -15885,7 +15907,7 @@
         <v>67.489999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="10" t="s">
         <v>33</v>
       </c>
@@ -15893,7 +15915,7 @@
         <v>67.489999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="9">
         <v>1005</v>
       </c>
@@ -15901,7 +15923,7 @@
         <v>19.89</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
@@ -15909,7 +15931,7 @@
         <v>19.89</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="9">
         <v>1006</v>
       </c>
@@ -15917,7 +15939,7 @@
         <v>170.87</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
@@ -15925,7 +15947,7 @@
         <v>170.87</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="9">
         <v>1007</v>
       </c>
@@ -15933,7 +15955,7 @@
         <v>136.93</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
         <v>39</v>
       </c>
@@ -15941,7 +15963,7 @@
         <v>136.93</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="9">
         <v>1008</v>
       </c>
@@ -15949,7 +15971,7 @@
         <v>188.27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="10" t="s">
         <v>39</v>
       </c>
@@ -15957,7 +15979,7 @@
         <v>188.27</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="9">
         <v>1009</v>
       </c>
@@ -15965,7 +15987,7 @@
         <v>32.69</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="10" t="s">
         <v>33</v>
       </c>
@@ -15973,7 +15995,7 @@
         <v>32.69</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="9">
         <v>1010</v>
       </c>
@@ -15981,7 +16003,7 @@
         <v>88.19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="10" t="s">
         <v>43</v>
       </c>
@@ -15989,7 +16011,7 @@
         <v>88.19</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="9">
         <v>1011</v>
       </c>
@@ -15997,7 +16019,7 @@
         <v>93.07</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
         <v>33</v>
       </c>
@@ -16005,7 +16027,7 @@
         <v>93.07</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" s="9">
         <v>1012</v>
       </c>
@@ -16013,7 +16035,7 @@
         <v>195.08</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" s="10" t="s">
         <v>33</v>
       </c>
@@ -16021,7 +16043,7 @@
         <v>195.08</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" s="9">
         <v>1013</v>
       </c>
@@ -16029,7 +16051,7 @@
         <v>-31.16</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" s="10" t="s">
         <v>33</v>
       </c>
@@ -16037,7 +16059,7 @@
         <v>-31.16</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" s="9">
         <v>1014</v>
       </c>
@@ -16045,7 +16067,7 @@
         <v>26.42</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" s="10" t="s">
         <v>33</v>
       </c>
@@ -16053,7 +16075,7 @@
         <v>26.42</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" s="9">
         <v>1015</v>
       </c>
@@ -16061,7 +16083,7 @@
         <v>-2.27</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" s="10" t="s">
         <v>36</v>
       </c>
@@ -16069,7 +16091,7 @@
         <v>-2.27</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" s="9">
         <v>1016</v>
       </c>
@@ -16077,7 +16099,7 @@
         <v>17.12</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" s="10" t="s">
         <v>39</v>
       </c>
@@ -16085,7 +16107,7 @@
         <v>17.12</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" s="9">
         <v>1017</v>
       </c>
@@ -16093,7 +16115,7 @@
         <v>71.319999999999993</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" s="10" t="s">
         <v>36</v>
       </c>
@@ -16101,7 +16123,7 @@
         <v>71.319999999999993</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" s="9">
         <v>1018</v>
       </c>
@@ -16109,7 +16131,7 @@
         <v>43.17</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" s="10" t="s">
         <v>36</v>
       </c>
@@ -16117,7 +16139,7 @@
         <v>43.17</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" s="9">
         <v>1019</v>
       </c>
@@ -16125,7 +16147,7 @@
         <v>48.67</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" s="10" t="s">
         <v>36</v>
       </c>
@@ -16133,7 +16155,7 @@
         <v>48.67</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" s="9">
         <v>1020</v>
       </c>
@@ -16141,7 +16163,7 @@
         <v>161.05000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" s="10" t="s">
         <v>33</v>
       </c>
@@ -16149,7 +16171,7 @@
         <v>161.05000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" s="9">
         <v>1021</v>
       </c>
@@ -16157,7 +16179,7 @@
         <v>182.5</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" s="10" t="s">
         <v>43</v>
       </c>
@@ -16165,7 +16187,7 @@
         <v>182.5</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" s="9">
         <v>1022</v>
       </c>
@@ -16173,7 +16195,7 @@
         <v>-32.4</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" s="10" t="s">
         <v>39</v>
       </c>
@@ -16181,7 +16203,7 @@
         <v>-32.4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" s="9">
         <v>1023</v>
       </c>
@@ -16189,7 +16211,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" s="10" t="s">
         <v>43</v>
       </c>
@@ -16197,7 +16219,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" s="9">
         <v>1024</v>
       </c>
@@ -16205,7 +16227,7 @@
         <v>117.79</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51" s="10" t="s">
         <v>36</v>
       </c>
@@ -16213,7 +16235,7 @@
         <v>117.79</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" s="9">
         <v>1025</v>
       </c>
@@ -16221,7 +16243,7 @@
         <v>39.659999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="A53" s="10" t="s">
         <v>36</v>
       </c>
@@ -16229,7 +16251,7 @@
         <v>39.659999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2">
       <c r="A54" s="9">
         <v>1026</v>
       </c>
@@ -16237,7 +16259,7 @@
         <v>13.54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2">
       <c r="A55" s="10" t="s">
         <v>43</v>
       </c>
@@ -16245,7 +16267,7 @@
         <v>13.54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56" s="9">
         <v>1027</v>
       </c>
@@ -16253,7 +16275,7 @@
         <v>23.82</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2">
       <c r="A57" s="10" t="s">
         <v>43</v>
       </c>
@@ -16261,7 +16283,7 @@
         <v>23.82</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2">
       <c r="A58" s="9">
         <v>1028</v>
       </c>
@@ -16269,7 +16291,7 @@
         <v>30.64</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2">
       <c r="A59" s="10" t="s">
         <v>43</v>
       </c>
@@ -16277,7 +16299,7 @@
         <v>30.64</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2">
       <c r="A60" s="9">
         <v>1029</v>
       </c>
@@ -16285,7 +16307,7 @@
         <v>162.16999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2">
       <c r="A61" s="10" t="s">
         <v>36</v>
       </c>
@@ -16293,7 +16315,7 @@
         <v>162.16999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2">
       <c r="A62" s="9">
         <v>1030</v>
       </c>
@@ -16301,7 +16323,7 @@
         <v>-15.84</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2">
       <c r="A63" s="10" t="s">
         <v>36</v>
       </c>
@@ -16309,7 +16331,7 @@
         <v>-15.84</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2">
       <c r="A64" s="9">
         <v>1031</v>
       </c>
@@ -16317,7 +16339,7 @@
         <v>127.23</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2">
       <c r="A65" s="10" t="s">
         <v>39</v>
       </c>
@@ -16325,7 +16347,7 @@
         <v>127.23</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2">
       <c r="A66" s="9">
         <v>1032</v>
       </c>
@@ -16333,7 +16355,7 @@
         <v>88.2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2">
       <c r="A67" s="10" t="s">
         <v>39</v>
       </c>
@@ -16341,7 +16363,7 @@
         <v>88.2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2">
       <c r="A68" s="9">
         <v>1033</v>
       </c>
@@ -16349,7 +16371,7 @@
         <v>24.13</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2">
       <c r="A69" s="10" t="s">
         <v>36</v>
       </c>
@@ -16357,7 +16379,7 @@
         <v>24.13</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2">
       <c r="A70" s="9">
         <v>1034</v>
       </c>
@@ -16365,7 +16387,7 @@
         <v>54.95</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2">
       <c r="A71" s="10" t="s">
         <v>43</v>
       </c>
@@ -16373,7 +16395,7 @@
         <v>54.95</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2">
       <c r="A72" s="9">
         <v>1035</v>
       </c>
@@ -16381,7 +16403,7 @@
         <v>14.05</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2">
       <c r="A73" s="10" t="s">
         <v>43</v>
       </c>
@@ -16389,7 +16411,7 @@
         <v>14.05</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2">
       <c r="A74" s="9">
         <v>1036</v>
       </c>
@@ -16397,7 +16419,7 @@
         <v>102.88</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2">
       <c r="A75" s="10" t="s">
         <v>39</v>
       </c>
@@ -16405,7 +16427,7 @@
         <v>102.88</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2">
       <c r="A76" s="9">
         <v>1037</v>
       </c>
@@ -16413,7 +16435,7 @@
         <v>-29.6</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2">
       <c r="A77" s="10" t="s">
         <v>36</v>
       </c>
@@ -16421,7 +16443,7 @@
         <v>-29.6</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2">
       <c r="A78" s="9">
         <v>1038</v>
       </c>
@@ -16429,7 +16451,7 @@
         <v>-48.7</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2">
       <c r="A79" s="10" t="s">
         <v>39</v>
       </c>
@@ -16437,7 +16459,7 @@
         <v>-48.7</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2">
       <c r="A80" s="9">
         <v>1039</v>
       </c>
@@ -16445,7 +16467,7 @@
         <v>106.97</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2">
       <c r="A81" s="10" t="s">
         <v>39</v>
       </c>
@@ -16453,7 +16475,7 @@
         <v>106.97</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2">
       <c r="A82" s="9">
         <v>1040</v>
       </c>
@@ -16461,7 +16483,7 @@
         <v>-1.43</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2">
       <c r="A83" s="10" t="s">
         <v>33</v>
       </c>
@@ -16469,7 +16491,7 @@
         <v>-1.43</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2">
       <c r="A84" s="9">
         <v>1041</v>
       </c>
@@ -16477,7 +16499,7 @@
         <v>-32.26</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2">
       <c r="A85" s="10" t="s">
         <v>33</v>
       </c>
@@ -16485,7 +16507,7 @@
         <v>-32.26</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2">
       <c r="A86" s="9">
         <v>1042</v>
       </c>
@@ -16493,7 +16515,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2">
       <c r="A87" s="10" t="s">
         <v>33</v>
       </c>
@@ -16501,7 +16523,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2">
       <c r="A88" s="9">
         <v>1043</v>
       </c>
@@ -16509,7 +16531,7 @@
         <v>-37.31</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2">
       <c r="A89" s="10" t="s">
         <v>43</v>
       </c>
@@ -16517,7 +16539,7 @@
         <v>-37.31</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2">
       <c r="A90" s="9">
         <v>1044</v>
       </c>
@@ -16525,7 +16547,7 @@
         <v>171.65</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2">
       <c r="A91" s="10" t="s">
         <v>36</v>
       </c>
@@ -16533,7 +16555,7 @@
         <v>171.65</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2">
       <c r="A92" s="9">
         <v>1045</v>
       </c>
@@ -16541,7 +16563,7 @@
         <v>-43.1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2">
       <c r="A93" s="10" t="s">
         <v>36</v>
       </c>
@@ -16549,7 +16571,7 @@
         <v>-43.1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2">
       <c r="A94" s="9">
         <v>1046</v>
       </c>
@@ -16557,7 +16579,7 @@
         <v>94.72</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2">
       <c r="A95" s="10" t="s">
         <v>36</v>
       </c>
@@ -16565,7 +16587,7 @@
         <v>94.72</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2">
       <c r="A96" s="9">
         <v>1047</v>
       </c>
@@ -16573,7 +16595,7 @@
         <v>59.62</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2">
       <c r="A97" s="10" t="s">
         <v>36</v>
       </c>
@@ -16581,7 +16603,7 @@
         <v>59.62</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2">
       <c r="A98" s="9">
         <v>1048</v>
       </c>
@@ -16589,7 +16611,7 @@
         <v>118.01</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2">
       <c r="A99" s="10" t="s">
         <v>33</v>
       </c>
@@ -16597,7 +16619,7 @@
         <v>118.01</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2">
       <c r="A100" s="9">
         <v>1049</v>
       </c>
@@ -16605,7 +16627,7 @@
         <v>32.04</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2">
       <c r="A101" s="10" t="s">
         <v>43</v>
       </c>
@@ -16613,7 +16635,7 @@
         <v>32.04</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2">
       <c r="A102" s="9">
         <v>1050</v>
       </c>
@@ -16621,7 +16643,7 @@
         <v>-11.24</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2">
       <c r="A103" s="10" t="s">
         <v>43</v>
       </c>
@@ -16629,7 +16651,7 @@
         <v>-11.24</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2">
       <c r="A104" s="9" t="s">
         <v>58</v>
       </c>
@@ -16650,29 +16672,29 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
@@ -16680,7 +16702,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -16699,7 +16721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -16718,7 +16740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -16737,7 +16759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -16765,19 +16787,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C2DFF8-4EEE-4549-A14B-34B0254F8756}">
   <dimension ref="A3:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5" bestFit="1" customWidth="1"/>
     <col min="20" max="23" width="6" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="7" bestFit="1" customWidth="1"/>
@@ -16825,7 +16849,7 @@
     <col min="169" max="203" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
         <v>61</v>
       </c>
@@ -16839,7 +16863,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -16847,7 +16871,7 @@
         <v>1112.76</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -16855,7 +16879,7 @@
         <v>1254.32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -16863,7 +16887,7 @@
         <v>1866.6099999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -16871,7 +16895,7 @@
         <v>680.46</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -16879,7 +16903,7 @@
         <v>2462.0500000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -16887,7 +16911,7 @@
         <v>809.19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -16897,14 +16921,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
-      <x14:slicerList>
-        <x14:slicer r:id="rId3"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -16916,15 +16932,15 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="12"/>
+    <col min="2" max="2" width="10.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -16956,7 +16972,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -16988,7 +17004,7 @@
         <v>257.05</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -17020,7 +17036,7 @@
         <v>413.63</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>10003</v>
       </c>
@@ -17052,7 +17068,7 @@
         <v>-144.21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>10004</v>
       </c>
@@ -17084,7 +17100,7 @@
         <v>110.03</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>10005</v>
       </c>
@@ -17116,7 +17132,7 @@
         <v>111.37</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>10006</v>
       </c>
@@ -17148,7 +17164,7 @@
         <v>400.54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>10007</v>
       </c>
@@ -17180,7 +17196,7 @@
         <v>43.36</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>10008</v>
       </c>
@@ -17212,7 +17228,7 @@
         <v>429.94</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>10009</v>
       </c>
@@ -17244,7 +17260,7 @@
         <v>168.82</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10010</v>
       </c>
@@ -17276,7 +17292,7 @@
         <v>-33.729999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>10011</v>
       </c>
@@ -17308,7 +17324,7 @@
         <v>-13.28</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>10012</v>
       </c>
@@ -17340,7 +17356,7 @@
         <v>372.6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>10013</v>
       </c>
@@ -17372,7 +17388,7 @@
         <v>249.12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>10014</v>
       </c>
@@ -17404,7 +17420,7 @@
         <v>143.69</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>10015</v>
       </c>
@@ -17436,7 +17452,7 @@
         <v>435.09</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>10016</v>
       </c>
@@ -17468,7 +17484,7 @@
         <v>-88.4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>10017</v>
       </c>
@@ -17500,7 +17516,7 @@
         <v>151.41999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>10018</v>
       </c>
@@ -17532,7 +17548,7 @@
         <v>259.52999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>10019</v>
       </c>
@@ -17564,7 +17580,7 @@
         <v>460.68</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>10020</v>
       </c>
@@ -17596,7 +17612,7 @@
         <v>-189.16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>10021</v>
       </c>
@@ -17628,7 +17644,7 @@
         <v>-5.6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>10022</v>
       </c>
@@ -17660,7 +17676,7 @@
         <v>-171.44</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>10023</v>
       </c>
@@ -17692,7 +17708,7 @@
         <v>365.2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>10024</v>
       </c>
@@ -17724,7 +17740,7 @@
         <v>355.48</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>10025</v>
       </c>
@@ -17756,7 +17772,7 @@
         <v>160.56</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>10026</v>
       </c>
@@ -17788,7 +17804,7 @@
         <v>212.94</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>10027</v>
       </c>
@@ -17820,7 +17836,7 @@
         <v>245.73</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>10028</v>
       </c>
@@ -17852,7 +17868,7 @@
         <v>102.65</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>10029</v>
       </c>
@@ -17884,7 +17900,7 @@
         <v>69.739999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>10030</v>
       </c>
@@ -17916,7 +17932,7 @@
         <v>267.38</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>10031</v>
       </c>
@@ -17948,7 +17964,7 @@
         <v>33.67</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>10032</v>
       </c>
@@ -17980,7 +17996,7 @@
         <v>295.45</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>10033</v>
       </c>
@@ -18012,7 +18028,7 @@
         <v>489.56</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>10034</v>
       </c>
@@ -18044,7 +18060,7 @@
         <v>494.67</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>10035</v>
       </c>
@@ -18076,7 +18092,7 @@
         <v>58.27</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>10036</v>
       </c>
@@ -18108,7 +18124,7 @@
         <v>-5.29</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>10037</v>
       </c>
@@ -18140,7 +18156,7 @@
         <v>187.81</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>10038</v>
       </c>
@@ -18172,7 +18188,7 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>10039</v>
       </c>
@@ -18204,7 +18220,7 @@
         <v>377.4</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>10040</v>
       </c>
@@ -18236,7 +18252,7 @@
         <v>443.72</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>10041</v>
       </c>
@@ -18268,7 +18284,7 @@
         <v>293.07</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>10042</v>
       </c>
@@ -18300,7 +18316,7 @@
         <v>318.97000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>10043</v>
       </c>
@@ -18332,7 +18348,7 @@
         <v>89.02</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>10044</v>
       </c>
@@ -18364,7 +18380,7 @@
         <v>-150.93</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>10045</v>
       </c>
@@ -18396,7 +18412,7 @@
         <v>390.55</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>10046</v>
       </c>
@@ -18428,7 +18444,7 @@
         <v>181.69</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>10047</v>
       </c>
@@ -18460,7 +18476,7 @@
         <v>235.35</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>10048</v>
       </c>
@@ -18492,7 +18508,7 @@
         <v>259.57</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>10049</v>
       </c>
@@ -18524,7 +18540,7 @@
         <v>194.61</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>10050</v>
       </c>
@@ -18556,7 +18572,7 @@
         <v>-193.16</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>10051</v>
       </c>
@@ -18588,7 +18604,7 @@
         <v>-44.94</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>10052</v>
       </c>
@@ -18620,7 +18636,7 @@
         <v>-61.16</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>10053</v>
       </c>
@@ -18652,7 +18668,7 @@
         <v>107.01</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>10054</v>
       </c>
@@ -18684,7 +18700,7 @@
         <v>293.17</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>10055</v>
       </c>
@@ -18716,7 +18732,7 @@
         <v>362.41</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>10056</v>
       </c>
@@ -18748,7 +18764,7 @@
         <v>406.43</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>10057</v>
       </c>
@@ -18780,7 +18796,7 @@
         <v>96.02</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>10058</v>
       </c>
@@ -18812,7 +18828,7 @@
         <v>134.1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>10059</v>
       </c>
@@ -18844,7 +18860,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>10060</v>
       </c>
@@ -18876,7 +18892,7 @@
         <v>-148.36000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>10061</v>
       </c>
@@ -18908,7 +18924,7 @@
         <v>-5.52</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>10062</v>
       </c>
@@ -18940,7 +18956,7 @@
         <v>63.19</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>10063</v>
       </c>
@@ -18972,7 +18988,7 @@
         <v>-59.41</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>10064</v>
       </c>
@@ -19004,7 +19020,7 @@
         <v>228.13</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>10065</v>
       </c>
@@ -19036,7 +19052,7 @@
         <v>418.76</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>10066</v>
       </c>
@@ -19068,7 +19084,7 @@
         <v>366.84</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>10067</v>
       </c>
@@ -19100,7 +19116,7 @@
         <v>197.98</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>10068</v>
       </c>
@@ -19132,7 +19148,7 @@
         <v>310.7</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>10069</v>
       </c>
@@ -19164,7 +19180,7 @@
         <v>142.31</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>10070</v>
       </c>
@@ -19196,7 +19212,7 @@
         <v>141.85</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>10071</v>
       </c>
@@ -19228,7 +19244,7 @@
         <v>250.29</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>10072</v>
       </c>
@@ -19260,7 +19276,7 @@
         <v>358.74</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>10073</v>
       </c>
@@ -19292,7 +19308,7 @@
         <v>394.27</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>10074</v>
       </c>
@@ -19324,7 +19340,7 @@
         <v>379.84</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>10075</v>
       </c>
@@ -19356,7 +19372,7 @@
         <v>75.72</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>10076</v>
       </c>
@@ -19388,7 +19404,7 @@
         <v>348.8</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>10077</v>
       </c>
@@ -19420,7 +19436,7 @@
         <v>117.58</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>10078</v>
       </c>
@@ -19452,7 +19468,7 @@
         <v>78.94</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>10079</v>
       </c>
@@ -19484,7 +19500,7 @@
         <v>487.39</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>10080</v>
       </c>
@@ -19516,7 +19532,7 @@
         <v>-143.88999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>10081</v>
       </c>
@@ -19548,7 +19564,7 @@
         <v>97.74</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>10082</v>
       </c>
@@ -19580,7 +19596,7 @@
         <v>462.15</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>10083</v>
       </c>
@@ -19612,7 +19628,7 @@
         <v>304.62</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>10084</v>
       </c>
@@ -19644,7 +19660,7 @@
         <v>114.64</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>10085</v>
       </c>
@@ -19676,7 +19692,7 @@
         <v>-6.13</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>10086</v>
       </c>
@@ -19708,7 +19724,7 @@
         <v>-199.74</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>10087</v>
       </c>
@@ -19740,7 +19756,7 @@
         <v>216.76</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>10088</v>
       </c>
@@ -19772,7 +19788,7 @@
         <v>-93.76</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>10089</v>
       </c>
@@ -19804,7 +19820,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>10090</v>
       </c>
@@ -19836,7 +19852,7 @@
         <v>86.62</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>10091</v>
       </c>
@@ -19868,7 +19884,7 @@
         <v>21.21</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>10092</v>
       </c>
@@ -19900,7 +19916,7 @@
         <v>291.64</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10">
       <c r="A94">
         <v>10093</v>
       </c>
@@ -19932,7 +19948,7 @@
         <v>279.27999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10">
       <c r="A95">
         <v>10094</v>
       </c>
@@ -19964,7 +19980,7 @@
         <v>144.79</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10">
       <c r="A96">
         <v>10095</v>
       </c>
@@ -19996,7 +20012,7 @@
         <v>182.33</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10">
       <c r="A97">
         <v>10096</v>
       </c>
@@ -20028,7 +20044,7 @@
         <v>405.74</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>10097</v>
       </c>
@@ -20060,7 +20076,7 @@
         <v>324.29000000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>10098</v>
       </c>
@@ -20092,7 +20108,7 @@
         <v>-26.15</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>10099</v>
       </c>
@@ -20124,7 +20140,7 @@
         <v>-23.43</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>10100</v>
       </c>
@@ -20156,7 +20172,7 @@
         <v>148.28</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10">
       <c r="A102">
         <v>10101</v>
       </c>
@@ -20188,7 +20204,7 @@
         <v>77.95</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10">
       <c r="A103">
         <v>10102</v>
       </c>
@@ -20220,7 +20236,7 @@
         <v>-14.48</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10">
       <c r="A104">
         <v>10103</v>
       </c>
@@ -20252,7 +20268,7 @@
         <v>35.130000000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10">
       <c r="A105">
         <v>10104</v>
       </c>
@@ -20284,7 +20300,7 @@
         <v>-46.51</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10">
       <c r="A106">
         <v>10105</v>
       </c>
@@ -20316,7 +20332,7 @@
         <v>73.62</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10">
       <c r="A107">
         <v>10106</v>
       </c>
@@ -20348,7 +20364,7 @@
         <v>-12.93</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10">
       <c r="A108">
         <v>10107</v>
       </c>
@@ -20380,7 +20396,7 @@
         <v>499.08</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10">
       <c r="A109">
         <v>10108</v>
       </c>
@@ -20412,7 +20428,7 @@
         <v>-183.79</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10">
       <c r="A110">
         <v>10109</v>
       </c>
@@ -20444,7 +20460,7 @@
         <v>157.30000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10">
       <c r="A111">
         <v>10110</v>
       </c>
@@ -20476,7 +20492,7 @@
         <v>127.27</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10">
       <c r="A112">
         <v>10111</v>
       </c>
@@ -20508,7 +20524,7 @@
         <v>72.3</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10">
       <c r="A113">
         <v>10112</v>
       </c>
@@ -20540,7 +20556,7 @@
         <v>-100.84</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10">
       <c r="A114">
         <v>10113</v>
       </c>
@@ -20572,7 +20588,7 @@
         <v>-166.95</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10">
       <c r="A115">
         <v>10114</v>
       </c>
@@ -20604,7 +20620,7 @@
         <v>492.86</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10">
       <c r="A116">
         <v>10115</v>
       </c>
@@ -20636,7 +20652,7 @@
         <v>351.05</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10">
       <c r="A117">
         <v>10116</v>
       </c>
@@ -20668,7 +20684,7 @@
         <v>107.87</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10">
       <c r="A118">
         <v>10117</v>
       </c>
@@ -20700,7 +20716,7 @@
         <v>269.97000000000003</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10">
       <c r="A119">
         <v>10118</v>
       </c>
@@ -20732,7 +20748,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10">
       <c r="A120">
         <v>10119</v>
       </c>
@@ -20764,7 +20780,7 @@
         <v>105.88</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10">
       <c r="A121">
         <v>10120</v>
       </c>
@@ -20796,7 +20812,7 @@
         <v>395.55</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10">
       <c r="A122">
         <v>10121</v>
       </c>
@@ -20828,7 +20844,7 @@
         <v>202.8</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10">
       <c r="A123">
         <v>10122</v>
       </c>
@@ -20860,7 +20876,7 @@
         <v>156.13999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10">
       <c r="A124">
         <v>10123</v>
       </c>
@@ -20892,7 +20908,7 @@
         <v>403.17</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10">
       <c r="A125">
         <v>10124</v>
       </c>
@@ -20924,7 +20940,7 @@
         <v>375.06</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10">
       <c r="A126">
         <v>10125</v>
       </c>
@@ -20956,7 +20972,7 @@
         <v>-166.29</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10">
       <c r="A127">
         <v>10126</v>
       </c>
@@ -20988,7 +21004,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10">
       <c r="A128">
         <v>10127</v>
       </c>
@@ -21020,7 +21036,7 @@
         <v>414.44</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10">
       <c r="A129">
         <v>10128</v>
       </c>
@@ -21052,7 +21068,7 @@
         <v>167.38</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10">
       <c r="A130">
         <v>10129</v>
       </c>
@@ -21084,7 +21100,7 @@
         <v>297.66000000000003</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10">
       <c r="A131">
         <v>10130</v>
       </c>
@@ -21116,7 +21132,7 @@
         <v>492.99</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10">
       <c r="A132">
         <v>10131</v>
       </c>
@@ -21148,7 +21164,7 @@
         <v>-42.81</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10">
       <c r="A133">
         <v>10132</v>
       </c>
@@ -21180,7 +21196,7 @@
         <v>447.67</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10">
       <c r="A134">
         <v>10133</v>
       </c>
@@ -21212,7 +21228,7 @@
         <v>275.85000000000002</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10">
       <c r="A135">
         <v>10134</v>
       </c>
@@ -21244,7 +21260,7 @@
         <v>87.19</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10">
       <c r="A136">
         <v>10135</v>
       </c>
@@ -21276,7 +21292,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10">
       <c r="A137">
         <v>10136</v>
       </c>
@@ -21308,7 +21324,7 @@
         <v>383.8</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10">
       <c r="A138">
         <v>10137</v>
       </c>
@@ -21340,7 +21356,7 @@
         <v>-64.59</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10">
       <c r="A139">
         <v>10138</v>
       </c>
@@ -21372,7 +21388,7 @@
         <v>333.12</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10">
       <c r="A140">
         <v>10139</v>
       </c>
@@ -21404,7 +21420,7 @@
         <v>91.64</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10">
       <c r="A141">
         <v>10140</v>
       </c>
@@ -21436,7 +21452,7 @@
         <v>445.43</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10">
       <c r="A142">
         <v>10141</v>
       </c>
@@ -21468,7 +21484,7 @@
         <v>238.24</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10">
       <c r="A143">
         <v>10142</v>
       </c>
@@ -21500,7 +21516,7 @@
         <v>115.27</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10">
       <c r="A144">
         <v>10143</v>
       </c>
@@ -21532,7 +21548,7 @@
         <v>388.02</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10">
       <c r="A145">
         <v>10144</v>
       </c>
@@ -21564,7 +21580,7 @@
         <v>81.47</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10">
       <c r="A146">
         <v>10145</v>
       </c>
@@ -21596,7 +21612,7 @@
         <v>243.51</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10">
       <c r="A147">
         <v>10146</v>
       </c>
@@ -21628,7 +21644,7 @@
         <v>212.84</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10">
       <c r="A148">
         <v>10147</v>
       </c>
@@ -21660,7 +21676,7 @@
         <v>389.83</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10">
       <c r="A149">
         <v>10148</v>
       </c>
@@ -21692,7 +21708,7 @@
         <v>-56.03</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10">
       <c r="A150">
         <v>10149</v>
       </c>
@@ -21724,7 +21740,7 @@
         <v>104.57</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10">
       <c r="A151">
         <v>10150</v>
       </c>
@@ -21756,7 +21772,7 @@
         <v>418.59</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10">
       <c r="A152">
         <v>10151</v>
       </c>
@@ -21788,7 +21804,7 @@
         <v>310.10000000000002</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10">
       <c r="A153">
         <v>10152</v>
       </c>
@@ -21820,7 +21836,7 @@
         <v>221.75</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10">
       <c r="A154">
         <v>10153</v>
       </c>
@@ -21852,7 +21868,7 @@
         <v>294.41000000000003</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10">
       <c r="A155">
         <v>10154</v>
       </c>
@@ -21884,7 +21900,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10">
       <c r="A156">
         <v>10155</v>
       </c>
@@ -21916,7 +21932,7 @@
         <v>96.09</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10">
       <c r="A157">
         <v>10156</v>
       </c>
@@ -21948,7 +21964,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10">
       <c r="A158">
         <v>10157</v>
       </c>
@@ -21980,7 +21996,7 @@
         <v>447.55</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10">
       <c r="A159">
         <v>10158</v>
       </c>
@@ -22012,7 +22028,7 @@
         <v>498.16</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10">
       <c r="A160">
         <v>10159</v>
       </c>
@@ -22044,7 +22060,7 @@
         <v>405.29</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10">
       <c r="A161">
         <v>10160</v>
       </c>
@@ -22076,7 +22092,7 @@
         <v>319.23</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10">
       <c r="A162">
         <v>10161</v>
       </c>
@@ -22108,7 +22124,7 @@
         <v>420.63</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10">
       <c r="A163">
         <v>10162</v>
       </c>
@@ -22140,7 +22156,7 @@
         <v>-84.5</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10">
       <c r="A164">
         <v>10163</v>
       </c>
@@ -22172,7 +22188,7 @@
         <v>153.13</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10">
       <c r="A165">
         <v>10164</v>
       </c>
@@ -22204,7 +22220,7 @@
         <v>288.8</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10">
       <c r="A166">
         <v>10165</v>
       </c>
@@ -22236,7 +22252,7 @@
         <v>-146.22999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10">
       <c r="A167">
         <v>10166</v>
       </c>
@@ -22268,7 +22284,7 @@
         <v>352.3</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10">
       <c r="A168">
         <v>10167</v>
       </c>
@@ -22300,7 +22316,7 @@
         <v>-74.459999999999994</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10">
       <c r="A169">
         <v>10168</v>
       </c>
@@ -22332,7 +22348,7 @@
         <v>20.48</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10">
       <c r="A170">
         <v>10169</v>
       </c>
@@ -22364,7 +22380,7 @@
         <v>269.62</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10">
       <c r="A171">
         <v>10170</v>
       </c>
@@ -22396,7 +22412,7 @@
         <v>-101.56</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10">
       <c r="A172">
         <v>10171</v>
       </c>
@@ -22428,7 +22444,7 @@
         <v>253.2</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10">
       <c r="A173">
         <v>10172</v>
       </c>
@@ -22460,7 +22476,7 @@
         <v>-8.94</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10">
       <c r="A174">
         <v>10173</v>
       </c>
@@ -22492,7 +22508,7 @@
         <v>329.83</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10">
       <c r="A175">
         <v>10174</v>
       </c>
@@ -22524,7 +22540,7 @@
         <v>102.85</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10">
       <c r="A176">
         <v>10175</v>
       </c>
@@ -22556,7 +22572,7 @@
         <v>417.73</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10">
       <c r="A177">
         <v>10176</v>
       </c>
@@ -22588,7 +22604,7 @@
         <v>-134.74</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10">
       <c r="A178">
         <v>10177</v>
       </c>
@@ -22620,7 +22636,7 @@
         <v>-113.83</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10">
       <c r="A179">
         <v>10178</v>
       </c>
@@ -22652,7 +22668,7 @@
         <v>-193.29</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10">
       <c r="A180">
         <v>10179</v>
       </c>
@@ -22684,7 +22700,7 @@
         <v>-187.67</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10">
       <c r="A181">
         <v>10180</v>
       </c>
@@ -22716,7 +22732,7 @@
         <v>-191.95</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10">
       <c r="A182">
         <v>10181</v>
       </c>
@@ -22748,7 +22764,7 @@
         <v>370.15</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10">
       <c r="A183">
         <v>10182</v>
       </c>
@@ -22780,7 +22796,7 @@
         <v>169.39</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10">
       <c r="A184">
         <v>10183</v>
       </c>
@@ -22812,7 +22828,7 @@
         <v>127.21</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10">
       <c r="A185">
         <v>10184</v>
       </c>
@@ -22844,7 +22860,7 @@
         <v>280.24</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10">
       <c r="A186">
         <v>10185</v>
       </c>
@@ -22876,7 +22892,7 @@
         <v>409.16</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10">
       <c r="A187">
         <v>10186</v>
       </c>
@@ -22908,7 +22924,7 @@
         <v>417.13</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10">
       <c r="A188">
         <v>10187</v>
       </c>
@@ -22940,7 +22956,7 @@
         <v>-119.05</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10">
       <c r="A189">
         <v>10188</v>
       </c>
@@ -22972,7 +22988,7 @@
         <v>150.35</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10">
       <c r="A190">
         <v>10189</v>
       </c>
@@ -23004,7 +23020,7 @@
         <v>457.14</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10">
       <c r="A191">
         <v>10190</v>
       </c>
@@ -23036,7 +23052,7 @@
         <v>-185.25</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10">
       <c r="A192">
         <v>10191</v>
       </c>
@@ -23068,7 +23084,7 @@
         <v>-54.59</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10">
       <c r="A193">
         <v>10192</v>
       </c>
@@ -23100,7 +23116,7 @@
         <v>460.97</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10">
       <c r="A194">
         <v>10193</v>
       </c>
@@ -23132,7 +23148,7 @@
         <v>272.92</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10">
       <c r="A195">
         <v>10194</v>
       </c>
@@ -23164,7 +23180,7 @@
         <v>367.61</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10">
       <c r="A196">
         <v>10195</v>
       </c>
@@ -23196,7 +23212,7 @@
         <v>74.209999999999994</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10">
       <c r="A197">
         <v>10196</v>
       </c>
@@ -23228,7 +23244,7 @@
         <v>138.74</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10">
       <c r="A198">
         <v>10197</v>
       </c>
@@ -23260,7 +23276,7 @@
         <v>375.85</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10">
       <c r="A199">
         <v>10198</v>
       </c>
@@ -23292,7 +23308,7 @@
         <v>-93.96</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10">
       <c r="A200">
         <v>10199</v>
       </c>
@@ -23324,7 +23340,7 @@
         <v>319.42</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10">
       <c r="A201">
         <v>10200</v>
       </c>
@@ -23366,11 +23382,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AD3FF6-DA6E-42CB-9C11-7324955F8DAF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
